--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N2">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O2">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P2">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q2">
-        <v>58824.10288338042</v>
+        <v>150982.9882214258</v>
       </c>
       <c r="R2">
-        <v>529416.9259504237</v>
+        <v>1358846.893992832</v>
       </c>
       <c r="S2">
-        <v>0.09306568673154669</v>
+        <v>0.1722824529033004</v>
       </c>
       <c r="T2">
-        <v>0.09306568673154675</v>
+        <v>0.1722824529033004</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>654.373214</v>
       </c>
       <c r="O3">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P3">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q3">
-        <v>23312.82874265462</v>
+        <v>46124.90652660684</v>
       </c>
       <c r="R3">
-        <v>209815.4586838915</v>
+        <v>415124.1587394616</v>
       </c>
       <c r="S3">
-        <v>0.03688325550652939</v>
+        <v>0.05263183706951958</v>
       </c>
       <c r="T3">
-        <v>0.03688325550652941</v>
+        <v>0.05263183706951958</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N4">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O4">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P4">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q4">
-        <v>48.30089287792899</v>
+        <v>299.4646098906222</v>
       </c>
       <c r="R4">
-        <v>434.708035901361</v>
+        <v>2695.1814890156</v>
       </c>
       <c r="S4">
-        <v>7.641690302261035E-05</v>
+        <v>0.000341710666595251</v>
       </c>
       <c r="T4">
-        <v>7.641690302261039E-05</v>
+        <v>0.0003417106665952511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H5">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I5">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J5">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N5">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O5">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P5">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q5">
-        <v>12813.12800116967</v>
+        <v>13429.60147213302</v>
       </c>
       <c r="R5">
-        <v>115318.152010527</v>
+        <v>120866.4132491972</v>
       </c>
       <c r="S5">
-        <v>0.02027166583351281</v>
+        <v>0.01532414154990555</v>
       </c>
       <c r="T5">
-        <v>0.02027166583351282</v>
+        <v>0.01532414154990555</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H6">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I6">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J6">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N6">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O6">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P6">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q6">
-        <v>248.5939349994143</v>
+        <v>447.840354283689</v>
       </c>
       <c r="R6">
-        <v>2237.345414994729</v>
+        <v>4030.563188553201</v>
       </c>
       <c r="S6">
-        <v>0.0003933007754301761</v>
+        <v>0.0005110180666971859</v>
       </c>
       <c r="T6">
-        <v>0.0003933007754301763</v>
+        <v>0.0005110180666971859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H7">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I7">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J7">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N7">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O7">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P7">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q7">
-        <v>116.6199318432453</v>
+        <v>889.5734194614223</v>
       </c>
       <c r="R7">
-        <v>1049.579386589208</v>
+        <v>8006.160775152801</v>
       </c>
       <c r="S7">
-        <v>0.0001845045400028393</v>
+        <v>0.001015067277100307</v>
       </c>
       <c r="T7">
-        <v>0.0001845045400028394</v>
+        <v>0.001015067277100307</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N8">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O8">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P8">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q8">
-        <v>42507.64744094597</v>
+        <v>55144.12477804603</v>
       </c>
       <c r="R8">
-        <v>382568.8269685137</v>
+        <v>496297.1230024142</v>
       </c>
       <c r="S8">
-        <v>0.06725140217228541</v>
+        <v>0.06292341403413322</v>
       </c>
       <c r="T8">
-        <v>0.06725140217228544</v>
+        <v>0.06292341403413322</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>654.373214</v>
       </c>
       <c r="O9">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P9">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q9">
         <v>16846.38535004151</v>
@@ -1013,10 +1013,10 @@
         <v>151617.4681503735</v>
       </c>
       <c r="S9">
-        <v>0.02665268732876565</v>
+        <v>0.01922293779483899</v>
       </c>
       <c r="T9">
-        <v>0.02665268732876567</v>
+        <v>0.01922293779483899</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J10">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N10">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O10">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P10">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q10">
-        <v>34.903334260929</v>
+        <v>109.3746653775257</v>
       </c>
       <c r="R10">
-        <v>314.130008348361</v>
+        <v>984.371988397731</v>
       </c>
       <c r="S10">
-        <v>5.52206087809598E-05</v>
+        <v>0.0001248043627874347</v>
       </c>
       <c r="T10">
-        <v>5.522060878095982E-05</v>
+        <v>0.0001248043627874347</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J11">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N11">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O11">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P11">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q11">
-        <v>9259.060503977777</v>
+        <v>4904.947425021499</v>
       </c>
       <c r="R11">
-        <v>83331.5445358</v>
+        <v>44144.5268251935</v>
       </c>
       <c r="S11">
-        <v>0.01464877120183144</v>
+        <v>0.005596897926706374</v>
       </c>
       <c r="T11">
-        <v>0.01464877120183145</v>
+        <v>0.005596897926706375</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>231.698769</v>
       </c>
       <c r="I12">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J12">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N12">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O12">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P12">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q12">
-        <v>179.639685553081</v>
+        <v>163.5665359930897</v>
       </c>
       <c r="R12">
-        <v>1616.757169977729</v>
+        <v>1472.098823937807</v>
       </c>
       <c r="S12">
-        <v>0.0002842081711535971</v>
+        <v>0.0001866411863067532</v>
       </c>
       <c r="T12">
-        <v>0.0002842081711535973</v>
+        <v>0.0001866411863067532</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>231.698769</v>
       </c>
       <c r="I13">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J13">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N13">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O13">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P13">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q13">
-        <v>84.27224053391201</v>
+        <v>324.9024821927087</v>
       </c>
       <c r="R13">
-        <v>758.450164805208</v>
+        <v>2924.122339734378</v>
       </c>
       <c r="S13">
-        <v>0.0001333272171314397</v>
+        <v>0.0003707371091664975</v>
       </c>
       <c r="T13">
-        <v>0.0001333272171314397</v>
+        <v>0.0003707371091664975</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H14">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I14">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J14">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N14">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O14">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P14">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q14">
-        <v>75224.26085978799</v>
+        <v>124457.4315788413</v>
       </c>
       <c r="R14">
-        <v>677018.3477380918</v>
+        <v>1120116.884209572</v>
       </c>
       <c r="S14">
-        <v>0.1190123971744772</v>
+        <v>0.1420148842398172</v>
       </c>
       <c r="T14">
-        <v>0.1190123971744772</v>
+        <v>0.1420148842398171</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H15">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I15">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J15">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>654.373214</v>
       </c>
       <c r="O15">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P15">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q15">
-        <v>29812.44464014571</v>
+        <v>38021.41860973569</v>
       </c>
       <c r="R15">
-        <v>268312.0017613114</v>
+        <v>342192.7674876211</v>
       </c>
       <c r="S15">
-        <v>0.04716630594574291</v>
+        <v>0.04338517430415312</v>
       </c>
       <c r="T15">
-        <v>0.04716630594574293</v>
+        <v>0.04338517430415312</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H16">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I16">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J16">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N16">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O16">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P16">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q16">
-        <v>61.76718024605101</v>
+        <v>246.8529510164874</v>
       </c>
       <c r="R16">
-        <v>555.904622214459</v>
+        <v>2221.676559148387</v>
       </c>
       <c r="S16">
-        <v>9.772193310735658E-05</v>
+        <v>0.0002816769783703589</v>
       </c>
       <c r="T16">
-        <v>9.772193310735662E-05</v>
+        <v>0.0002816769783703589</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H17">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I17">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J17">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N17">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O17">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P17">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q17">
-        <v>16385.42767240671</v>
+        <v>11070.21212149988</v>
       </c>
       <c r="R17">
-        <v>147468.8490516604</v>
+        <v>99631.90909349895</v>
       </c>
       <c r="S17">
-        <v>0.02592340561055043</v>
+        <v>0.01263190854094647</v>
       </c>
       <c r="T17">
-        <v>0.02592340561055044</v>
+        <v>0.01263190854094647</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H18">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I18">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J18">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N18">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O18">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P18">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q18">
-        <v>317.901916016139</v>
+        <v>369.1611943046488</v>
       </c>
       <c r="R18">
-        <v>2861.117244145251</v>
+        <v>3322.450748741839</v>
       </c>
       <c r="S18">
-        <v>0.0005029530188666138</v>
+        <v>0.0004212394841347523</v>
       </c>
       <c r="T18">
-        <v>0.000502953018866614</v>
+        <v>0.0004212394841347522</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H19">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I19">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J19">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N19">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O19">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P19">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q19">
-        <v>149.133565059528</v>
+        <v>733.2880630538784</v>
       </c>
       <c r="R19">
-        <v>1342.202085535752</v>
+        <v>6599.592567484906</v>
       </c>
       <c r="S19">
-        <v>0.0002359443997727345</v>
+        <v>0.0008367344405871581</v>
       </c>
       <c r="T19">
-        <v>0.0002359443997727346</v>
+        <v>0.000836734440587158</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H20">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I20">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J20">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N20">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O20">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P20">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q20">
-        <v>25070.28744959201</v>
+        <v>20373.74297750551</v>
       </c>
       <c r="R20">
-        <v>225632.587046328</v>
+        <v>183363.6867975496</v>
       </c>
       <c r="S20">
-        <v>0.03966373312448342</v>
+        <v>0.02324790664388199</v>
       </c>
       <c r="T20">
-        <v>0.03966373312448343</v>
+        <v>0.02324790664388199</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H21">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I21">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J21">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>654.373214</v>
       </c>
       <c r="O21">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P21">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q21">
-        <v>9935.711539879501</v>
+        <v>6224.124992521492</v>
       </c>
       <c r="R21">
-        <v>89421.4038589155</v>
+        <v>56017.12493269342</v>
       </c>
       <c r="S21">
-        <v>0.01571930165188609</v>
+        <v>0.007102174447069056</v>
       </c>
       <c r="T21">
-        <v>0.01571930165188609</v>
+        <v>0.007102174447069056</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H22">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I22">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J22">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N22">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O22">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P22">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q22">
-        <v>20.585392877513</v>
+        <v>40.4099499198061</v>
       </c>
       <c r="R22">
-        <v>185.268535897617</v>
+        <v>363.689549278255</v>
       </c>
       <c r="S22">
-        <v>3.256817581362056E-05</v>
+        <v>4.611066038561663E-05</v>
       </c>
       <c r="T22">
-        <v>3.256817581362058E-05</v>
+        <v>4.611066038561664E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H23">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I23">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J23">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N23">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O23">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P23">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q23">
-        <v>5460.836398212145</v>
+        <v>1812.199188178076</v>
       </c>
       <c r="R23">
-        <v>49147.52758390931</v>
+        <v>16309.79269360268</v>
       </c>
       <c r="S23">
-        <v>0.008639596094406836</v>
+        <v>0.002067849662842897</v>
       </c>
       <c r="T23">
-        <v>0.008639596094406839</v>
+        <v>0.002067849662842898</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H24">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I24">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J24">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N24">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O24">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P24">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q24">
-        <v>105.9484310541237</v>
+        <v>60.43186971335945</v>
       </c>
       <c r="R24">
-        <v>953.535879487113</v>
+        <v>543.886827420235</v>
       </c>
       <c r="S24">
-        <v>0.0001676211452596201</v>
+        <v>6.895711146265929E-05</v>
       </c>
       <c r="T24">
-        <v>0.0001676211452596202</v>
+        <v>6.895711146265929E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H25">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I25">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J25">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N25">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O25">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P25">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q25">
-        <v>49.70233408333068</v>
+        <v>120.0396178485211</v>
       </c>
       <c r="R25">
-        <v>447.321006749976</v>
+        <v>1080.35656063669</v>
       </c>
       <c r="S25">
-        <v>7.863412490618357E-05</v>
+        <v>0.0001369738409084106</v>
       </c>
       <c r="T25">
-        <v>7.863412490618359E-05</v>
+        <v>0.0001369738409084106</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H26">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J26">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N26">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O26">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P26">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q26">
-        <v>109304.9750482884</v>
+        <v>164454.3696403128</v>
       </c>
       <c r="R26">
-        <v>983744.7754345959</v>
+        <v>1480089.326762815</v>
       </c>
       <c r="S26">
-        <v>0.1729315377101584</v>
+        <v>0.1876542683785516</v>
       </c>
       <c r="T26">
-        <v>0.1729315377101585</v>
+        <v>0.1876542683785516</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H27">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I27">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J27">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>654.373214</v>
       </c>
       <c r="O27">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P27">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q27">
-        <v>43319.11646953192</v>
+        <v>50240.37818371272</v>
       </c>
       <c r="R27">
-        <v>389872.0482257872</v>
+        <v>452163.4036534144</v>
       </c>
       <c r="S27">
-        <v>0.06853522833715615</v>
+        <v>0.05732788634164276</v>
       </c>
       <c r="T27">
-        <v>0.06853522833715617</v>
+        <v>0.05732788634164276</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H28">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I28">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J28">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N28">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O28">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P28">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q28">
-        <v>89.751099159112</v>
+        <v>326.1841895519967</v>
       </c>
       <c r="R28">
-        <v>807.759892432008</v>
+        <v>2935.65770596797</v>
       </c>
       <c r="S28">
-        <v>0.0001419953262137008</v>
+        <v>0.0003721996294832797</v>
       </c>
       <c r="T28">
-        <v>0.0001419953262137009</v>
+        <v>0.0003721996294832798</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H29">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I29">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J29">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N29">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O29">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P29">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q29">
-        <v>23808.92470616956</v>
+        <v>14627.85092967738</v>
       </c>
       <c r="R29">
-        <v>214280.3223555261</v>
+        <v>131650.6583670964</v>
       </c>
       <c r="S29">
-        <v>0.03766812955077616</v>
+        <v>0.0166914303959379</v>
       </c>
       <c r="T29">
-        <v>0.03766812955077618</v>
+        <v>0.01669143039593791</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H30">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I30">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J30">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N30">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O30">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P30">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q30">
-        <v>461.9289123055013</v>
+        <v>487.7986853406767</v>
       </c>
       <c r="R30">
-        <v>4157.360210749512</v>
+        <v>4390.188168066091</v>
       </c>
       <c r="S30">
-        <v>0.0007308183098022866</v>
+        <v>0.0005566133974660007</v>
       </c>
       <c r="T30">
-        <v>0.0007308183098022868</v>
+        <v>0.0005566133974660007</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H31">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I31">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J31">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N31">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O31">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P31">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q31">
-        <v>216.6992459796693</v>
+        <v>968.9451617672067</v>
       </c>
       <c r="R31">
-        <v>1950.293213817024</v>
+        <v>8720.506455904861</v>
       </c>
       <c r="S31">
-        <v>0.0003428401480476152</v>
+        <v>0.001105636145929389</v>
       </c>
       <c r="T31">
-        <v>0.0003428401480476153</v>
+        <v>0.001105636145929389</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H32">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I32">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J32">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N32">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O32">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P32">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q32">
-        <v>78955.51373175657</v>
+        <v>108210.2448656195</v>
       </c>
       <c r="R32">
-        <v>710599.6235858091</v>
+        <v>973892.2037905756</v>
       </c>
       <c r="S32">
-        <v>0.1249156170091637</v>
+        <v>0.1234756752023943</v>
       </c>
       <c r="T32">
-        <v>0.1249156170091638</v>
+        <v>0.1234756752023943</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H33">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I33">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J33">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>654.373214</v>
       </c>
       <c r="O33">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P33">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q33">
-        <v>31291.19323019548</v>
+        <v>33057.94572252111</v>
       </c>
       <c r="R33">
-        <v>281620.7390717593</v>
+        <v>297521.5115026899</v>
       </c>
       <c r="S33">
-        <v>0.04950583593924105</v>
+        <v>0.03772149461413223</v>
       </c>
       <c r="T33">
-        <v>0.04950583593924107</v>
+        <v>0.03772149461413223</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H34">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I34">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J34">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N34">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O34">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P34">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q34">
-        <v>64.830938746996</v>
+        <v>214.6277481097892</v>
       </c>
       <c r="R34">
-        <v>583.478448722964</v>
+        <v>1931.649732988103</v>
       </c>
       <c r="S34">
-        <v>0.0001025691092629426</v>
+        <v>0.0002449057032255696</v>
       </c>
       <c r="T34">
-        <v>0.0001025691092629426</v>
+        <v>0.0002449057032255696</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H35">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I35">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J35">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N35">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O35">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P35">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q35">
-        <v>17198.17310004285</v>
+        <v>9625.060948031851</v>
       </c>
       <c r="R35">
-        <v>154783.5579003857</v>
+        <v>86625.54853228664</v>
       </c>
       <c r="S35">
-        <v>0.02720925116795462</v>
+        <v>0.01098288707227597</v>
       </c>
       <c r="T35">
-        <v>0.02720925116795463</v>
+        <v>0.01098288707227598</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H36">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I36">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J36">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N36">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O36">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P36">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q36">
-        <v>333.6703984655773</v>
+        <v>320.9693685931879</v>
       </c>
       <c r="R36">
-        <v>3003.033586190196</v>
+        <v>2888.724317338691</v>
       </c>
       <c r="S36">
-        <v>0.0005279003546684137</v>
+        <v>0.0003662491435588819</v>
       </c>
       <c r="T36">
-        <v>0.0005279003546684139</v>
+        <v>0.0003662491435588819</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H37">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I37">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J37">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N37">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O37">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P37">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q37">
-        <v>156.5308466888213</v>
+        <v>637.5616132639683</v>
       </c>
       <c r="R37">
-        <v>1408.777620199392</v>
+        <v>5738.054519375713</v>
       </c>
       <c r="S37">
-        <v>0.0002476476482887665</v>
+        <v>0.0007275036737848489</v>
       </c>
       <c r="T37">
-        <v>0.0002476476482887666</v>
+        <v>0.0007275036737848489</v>
       </c>
     </row>
   </sheetData>
